--- a/tabular/genbank-submission/rabies_metadata.xlsx
+++ b/tabular/genbank-submission/rabies_metadata.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,37 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/general/RABV/NCBI-RABV-GLUE/tabular/genbank-submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B25E139-19D2-3E43-9D8F-8954719AE31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3975CF5C-0EEB-6141-9F8E-1B7BD198E99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="17880" yWindow="3220" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rabies_metadata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="67">
-  <si>
-    <t>Sample ID</t>
-  </si>
-  <si>
-    <t>Major/Minor clade</t>
-  </si>
-  <si>
-    <t>Sample collection year</t>
-  </si>
-  <si>
-    <t>Host species</t>
-  </si>
-  <si>
-    <t>Country/Municipality or City of origin</t>
-  </si>
-  <si>
-    <t>Tissue type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="69">
   <si>
     <t>18-092</t>
   </si>
@@ -46,12 +28,6 @@
     <t>ASEAN SEA4</t>
   </si>
   <si>
-    <t>Canine</t>
-  </si>
-  <si>
-    <t>Philippines/Davao</t>
-  </si>
-  <si>
     <t>Brain</t>
   </si>
   <si>
@@ -79,9 +55,6 @@
     <t>18-107</t>
   </si>
   <si>
-    <t>Philippines/Compostela Valley</t>
-  </si>
-  <si>
     <t>18-114</t>
   </si>
   <si>
@@ -91,9 +64,6 @@
     <t>18-118</t>
   </si>
   <si>
-    <t>Philippines/Digos Cogon</t>
-  </si>
-  <si>
     <t>18-120</t>
   </si>
   <si>
@@ -106,9 +76,6 @@
     <t>18-133</t>
   </si>
   <si>
-    <t>Philippines/Tagum</t>
-  </si>
-  <si>
     <t>18-135</t>
   </si>
   <si>
@@ -118,9 +85,6 @@
     <t>18-142</t>
   </si>
   <si>
-    <t>Philippines/Nabunturan</t>
-  </si>
-  <si>
     <t>18-144</t>
   </si>
   <si>
@@ -136,18 +100,12 @@
     <t>18-162</t>
   </si>
   <si>
-    <t>Philippines/Samal</t>
-  </si>
-  <si>
     <t>18-163</t>
   </si>
   <si>
     <t>18-164</t>
   </si>
   <si>
-    <t>Philippines/Digos</t>
-  </si>
-  <si>
     <t>18-172</t>
   </si>
   <si>
@@ -157,9 +115,6 @@
     <t>18-179</t>
   </si>
   <si>
-    <t>Philippines/Cotabato</t>
-  </si>
-  <si>
     <t>18-181</t>
   </si>
   <si>
@@ -220,13 +175,64 @@
     <t>19-050</t>
   </si>
   <si>
-    <t>Philippines/Panabo</t>
+    <t>sequenceID</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Davao</t>
+  </si>
+  <si>
+    <t>Compostela Valley</t>
+  </si>
+  <si>
+    <t>Digos Cogon</t>
+  </si>
+  <si>
+    <t>Tagum</t>
+  </si>
+  <si>
+    <t>Nabunturan</t>
+  </si>
+  <si>
+    <t>Samal</t>
+  </si>
+  <si>
+    <t>Digos</t>
+  </si>
+  <si>
+    <t>Cotabato</t>
+  </si>
+  <si>
+    <t>Panabo</t>
+  </si>
+  <si>
+    <t>major_clade</t>
+  </si>
+  <si>
+    <t>collection_year</t>
+  </si>
+  <si>
+    <t>place_sampled</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>Canis familiaris</t>
+  </si>
+  <si>
+    <t>tissue_type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1060,1011 +1066,1169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="A1:G50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2018</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2018</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2018</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2018</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2018</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>2018</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2018</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2018</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2018</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2018</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>2018</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2018</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>2018</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2018</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>2018</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2018</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>2018</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2018</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>2018</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2018</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>2018</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2018</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>2018</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>2018</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>2018</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2018</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2018</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>2018</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>2018</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>2018</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2018</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>2018</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>2018</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>2018</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>2018</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>2018</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>2018</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2018</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>2018</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>2018</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>2018</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>2018</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2018</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18">
-        <v>2018</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2018</v>
+      </c>
+      <c r="D29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19">
-        <v>2018</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>2018</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20">
-        <v>2018</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>2018</v>
+      </c>
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>2018</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>2018</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>2018</v>
+      </c>
+      <c r="D33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <v>2018</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>2018</v>
+      </c>
+      <c r="D34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23">
-        <v>2018</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>2018</v>
+      </c>
+      <c r="D35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>2018</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>2018</v>
+      </c>
+      <c r="D36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25">
-        <v>2018</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>2018</v>
+      </c>
+      <c r="D37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="F25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>2018</v>
+      </c>
+      <c r="D38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26">
-        <v>2018</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>2018</v>
+      </c>
+      <c r="D39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27">
-        <v>2018</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>2018</v>
+      </c>
+      <c r="D40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="F27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>2018</v>
+      </c>
+      <c r="D41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28">
-        <v>2018</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>2018</v>
+      </c>
+      <c r="D42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" t="s">
+        <v>53</v>
+      </c>
+      <c r="G42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29">
-        <v>2018</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>2018</v>
+      </c>
+      <c r="D43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" t="s">
+        <v>53</v>
+      </c>
+      <c r="G43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30">
-        <v>2018</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>2018</v>
+      </c>
+      <c r="D44" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="F30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31">
-        <v>2018</v>
-      </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32">
-        <v>2018</v>
-      </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33">
-        <v>2018</v>
-      </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34">
-        <v>2018</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35">
-        <v>2018</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36">
-        <v>2018</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37">
-        <v>2018</v>
-      </c>
-      <c r="D37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38">
-        <v>2018</v>
-      </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39">
-        <v>2018</v>
-      </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40">
-        <v>2018</v>
-      </c>
-      <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41">
-        <v>2018</v>
-      </c>
-      <c r="D41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42">
-        <v>2018</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43">
-        <v>2018</v>
-      </c>
-      <c r="D43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44">
-        <v>2018</v>
-      </c>
-      <c r="D44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>60</v>
-      </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>2019</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="F45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="G45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>2019</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="F46" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="G46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>2019</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="E47" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="F47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="G47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C48">
         <v>2019</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="F48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="G48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>2019</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="F49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="G49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>2019</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="E50" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F50" t="s">
-        <v>10</v>
+        <v>61</v>
+      </c>
+      <c r="G50" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
